--- a/TBird.Wpf/lang/tbird-wpf-language.xlsx
+++ b/TBird.Wpf/lang/tbird-wpf-language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\TBird.Library\TBird.Wpf\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC90585-265D-4EF1-A238-8CFF01987391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920B65B-1BDA-4639-BB79-456D30A495A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -83,6 +83,26 @@
     <t>情報</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>H_ShowSaveFileDialog</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>保存するﾌｫﾙﾀﾞを選択してﾌｧｲﾙ名を入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1049,11 +1069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,10 +1100,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1096,10 +1116,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1116,6 +1136,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1124,8 +1152,8 @@
       <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+    <sortCondition ref="A2:A7"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBird.Wpf/lang/tbird-wpf-language.xlsx
+++ b/TBird.Wpf/lang/tbird-wpf-language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\TBird.Library\TBird.Wpf\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920B65B-1BDA-4639-BB79-456D30A495A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3C9CF6-4A43-4C06-B0F8-1771CC10C75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ｷｬﾝｾﾙ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>L_Ok</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ｴﾗｰ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>情報</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
@@ -91,17 +83,33 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>保存するﾌｫﾙﾀﾞを選択してﾌｧｲﾙ名を入力してください。</t>
+    <t>L_Copy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コピー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>保存するフォルダを選択してファイル名を入力してください。</t>
     <rPh sb="0" eb="2">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="9" eb="11">
       <t>センタク</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="17" eb="18">
       <t>メイ</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="19" eb="21">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -1069,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C7"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,10 +1108,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1111,39 +1119,47 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1152,8 +1168,8 @@
       <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
